--- a/src/main/webapp/assets/excel/plan/Mining_Report_13.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_13.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Д/д</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Маягтын мэдээлэл</t>
+  </si>
+  <si>
+    <t>Тодотгол</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,6 +242,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -254,8 +260,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +549,10 @@
   <dimension ref="A1:CY3102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -559,24 +568,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:103" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -601,6 +610,9 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
+      <c r="S4" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:103" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -618,7 +630,7 @@
       <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -630,10 +642,10 @@
       <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -645,18 +657,19 @@
       <c r="N5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:103" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -664,19 +677,20 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:103" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -733,7 +747,9 @@
       <c r="R7" s="4">
         <v>18</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="17">
+        <v>19</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -65132,11 +65148,8 @@
       <c r="R3102" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
+  <mergeCells count="24">
+    <mergeCell ref="S4:S6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="A2:B2"/>
@@ -65149,13 +65162,17 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="N4:R4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
